--- a/AFR-Tables/JDM-AFR-231HP.xlsx
+++ b/AFR-Tables/JDM-AFR-231HP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LOW\RX8-E85-Vtune\AFR-Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165A86ED-1B45-47F0-9ED3-154482D1BD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C75A178-44C3-4B99-BE87-8BFA8B89AE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{37191EE4-084A-455C-847F-C07633C08EC5}"/>
   </bookViews>
@@ -34,10 +34,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -181,6 +177,178 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="302816"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B72DE4-33D2-49CB-842E-85F41785B7B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="302816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="302816"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14849D94-7E06-4484-91DC-410494964F86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="302816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="309685"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A6CF99-0686-42A9-996E-521C46998803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="309685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="309685"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93E1996-CFD3-4155-9540-1C5E778CFB39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="309685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -272,6 +440,178 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="302816"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9F819E-5D06-45E8-AF64-6577ED73C540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="302816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="302816"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B11DD6-E649-48BC-9ACE-2D160AED2567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="302816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="309685"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58ACDE52-BD37-4A86-8D74-92560AF94973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="309685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="309685"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D389BF63-418B-4828-88BE-70713218A8F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="309685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -334,6 +674,178 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA82336C-2464-40B9-9B5F-6BF51720D0AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="309685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="302816"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA2ECD7-D08E-4B3B-A3DA-0FC96EFC4FC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="302816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="302816"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852D9050-CE79-495C-82D4-F76605195EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="302816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="309685"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2843F4C0-65E9-462D-8843-ABFB047C8AA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="309685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="309685"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246D379B-797C-43BD-9665-930702475743}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -663,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5067D603-3614-4F4F-BA7D-58AB7E8F7F4D}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,6 +2538,1762 @@
       </c>
       <c r="V20">
         <v>10.56636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>38</v>
+      </c>
+      <c r="I22">
+        <v>44</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>56</v>
+      </c>
+      <c r="L22">
+        <v>63</v>
+      </c>
+      <c r="M22">
+        <v>69</v>
+      </c>
+      <c r="N22">
+        <v>75</v>
+      </c>
+      <c r="O22">
+        <v>81</v>
+      </c>
+      <c r="P22">
+        <v>88</v>
+      </c>
+      <c r="Q22">
+        <v>94</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>106</v>
+      </c>
+      <c r="T22">
+        <v>113</v>
+      </c>
+      <c r="U22">
+        <v>119</v>
+      </c>
+      <c r="V22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>500</v>
+      </c>
+      <c r="B23">
+        <f>B2/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:V23" si="0">C2/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>750</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:V36" si="1">B3/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1500</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>0.86719999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2000</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2500</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>0.84770000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3000</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>0.81640000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3500</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>0.77729999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4000</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0.69530000000000003</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>0.67579999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4500</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0.69140000000000001</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>0.66800000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5000</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0.69530000000000003</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>0.69140000000000001</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>0.6601999999999999</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>0.6601999999999999</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>0.6601999999999999</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>0.6601999999999999</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>0.6601999999999999</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>0.6601999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5500</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6000</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.8398000000000001</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>0.67190000000000005</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>0.67190000000000005</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>0.67190000000000005</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>0.67190000000000005</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>0.67190000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6500</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:V36" si="2">E15/14.7</f>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>0.80469999999999997</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0.67969999999999997</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>0.6601999999999999</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="2"/>
+        <v>0.64450000000000007</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>0.64450000000000007</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="2"/>
+        <v>0.64450000000000007</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="2"/>
+        <v>0.64450000000000007</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="2"/>
+        <v>0.64450000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7000</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:V41" si="3">B16/14.7</f>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>0.64059999999999995</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>0.62890000000000001</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7500</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>0.64450000000000007</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>0.64450000000000007</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="3"/>
+        <v>0.64450000000000007</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>0.64450000000000007</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="3"/>
+        <v>0.64450000000000007</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="3"/>
+        <v>0.64450000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8000</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>0.67190000000000005</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8500</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0.8398000000000001</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9000</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>0.8398000000000001</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2036,10 +4304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFFE020-052D-4439-86B6-4B03987847BE}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="A22" sqref="A22:V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,6 +5667,1762 @@
       </c>
       <c r="V20" s="1">
         <v>11.024999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>38</v>
+      </c>
+      <c r="I22">
+        <v>44</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>56</v>
+      </c>
+      <c r="L22">
+        <v>63</v>
+      </c>
+      <c r="M22">
+        <v>69</v>
+      </c>
+      <c r="N22">
+        <v>75</v>
+      </c>
+      <c r="O22">
+        <v>81</v>
+      </c>
+      <c r="P22">
+        <v>88</v>
+      </c>
+      <c r="Q22">
+        <v>94</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>106</v>
+      </c>
+      <c r="T22">
+        <v>113</v>
+      </c>
+      <c r="U22">
+        <v>119</v>
+      </c>
+      <c r="V22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>500</v>
+      </c>
+      <c r="B23">
+        <f>B2/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:V23" si="0">C2/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>750</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:V36" si="1">B3/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1500</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2000</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2500</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3000</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3500</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4000</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4500</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5000</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>0.73829999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5500</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6000</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.8398000000000001</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6500</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:V36" si="2">E15/14.7</f>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>0.80469999999999997</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0.67969999999999997</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="2"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="2"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="2"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="2"/>
+        <v>0.76559999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7000</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:V41" si="3">B16/14.7</f>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="3"/>
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="3"/>
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="3"/>
+        <v>0.73440000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7500</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8000</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8500</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0.8398000000000001</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9000</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>0.8398000000000001</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -3409,10 +7433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B7775-635C-4DB8-935C-614356DD0AF8}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4772,6 +8796,1762 @@
       </c>
       <c r="V20" s="1">
         <v>11.024999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>38</v>
+      </c>
+      <c r="I22">
+        <v>44</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>56</v>
+      </c>
+      <c r="L22">
+        <v>63</v>
+      </c>
+      <c r="M22">
+        <v>69</v>
+      </c>
+      <c r="N22">
+        <v>75</v>
+      </c>
+      <c r="O22">
+        <v>81</v>
+      </c>
+      <c r="P22">
+        <v>88</v>
+      </c>
+      <c r="Q22">
+        <v>94</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>106</v>
+      </c>
+      <c r="T22">
+        <v>113</v>
+      </c>
+      <c r="U22">
+        <v>119</v>
+      </c>
+      <c r="V22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>500</v>
+      </c>
+      <c r="B23">
+        <f>B2/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:V23" si="0">C2/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>750</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:V36" si="1">B3/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1500</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2000</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2500</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3000</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3500</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>0.85549999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4000</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4500</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5000</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.94529999999999992</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>0.73829999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5500</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>0.71089999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6000</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.8398000000000001</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>0.74609999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6500</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:V36" si="2">E15/14.7</f>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>0.80469999999999997</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0.67969999999999997</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="2"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="2"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="2"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="2"/>
+        <v>0.76559999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7000</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:V41" si="3">B16/14.7</f>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="3"/>
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="3"/>
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="3"/>
+        <v>0.73440000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7500</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8000</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="3"/>
+        <v>0.78120000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8500</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0.8398000000000001</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9000</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>0.8398000000000001</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
       </c>
     </row>
   </sheetData>
